--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70447F87-6F0B-41F4-88E9-918EB3892E3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C045A4F-EBE2-441D-B655-341EACFAD610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="705" windowWidth="21870" windowHeight="14370" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="-300" yWindow="5805" windowWidth="21600" windowHeight="12090" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -199,6 +203,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +262,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A160B-95FF-40E7-AB12-7BB2CDE5C966}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,6 +595,7 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,20 +685,20 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="F3" s="4">
+        <v>150</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>150</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -705,20 +720,23 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="F4" s="4">
+        <f>F3*1.5</f>
+        <v>225</v>
+      </c>
+      <c r="G4" s="4">
+        <f>G3*1.4</f>
+        <v>140</v>
+      </c>
+      <c r="H4" s="4">
+        <f>H3*2</f>
+        <v>300</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.9</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -740,20 +758,23 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="F5" s="4">
+        <f>F4*1.5</f>
+        <v>337.5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G7" si="0">G4*1.4</f>
+        <v>196</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H7" si="1">H4*2</f>
+        <v>600</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -775,20 +796,23 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F7" si="2">F5*1.5</f>
+        <v>506.25</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>274.39999999999998</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.8</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -810,20 +834,23 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>759.375</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>384.15999999999997</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -845,20 +872,23 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F12" si="3">F3</f>
+        <v>150</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:G12" si="4">G3</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H12" si="5">H3</f>
+        <v>150</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -880,20 +910,23 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.9</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -915,20 +948,23 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>337.5</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -950,20 +986,23 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="F11" s="4">
+        <f t="shared" si="3"/>
+        <v>506.25</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="4"/>
+        <v>274.39999999999998</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.8</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -985,20 +1024,23 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>759.375</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>384.15999999999997</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1020,20 +1062,23 @@
       <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F17" si="6">F3</f>
+        <v>150</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:G17" si="7">G3</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H17" si="8">H3</f>
+        <v>150</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1055,20 +1100,23 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+      <c r="F14" s="4">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.9</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1090,20 +1138,23 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+      <c r="F15" s="4">
+        <f t="shared" si="6"/>
+        <v>337.5</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1125,20 +1176,23 @@
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="F16" s="4">
+        <f t="shared" si="6"/>
+        <v>506.25</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="7"/>
+        <v>274.39999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.8</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1160,20 +1214,23 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>759.375</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="7"/>
+        <v>384.15999999999997</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1196,13 +1253,14 @@
         <v>46</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <f>120+170</f>
+        <v>290</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>216000000</v>
       </c>
       <c r="I18">
         <v>0</v>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C045A4F-EBE2-441D-B655-341EACFAD610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0760E-38D1-4016-975A-FB2318AE87E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="5805" windowWidth="21600" windowHeight="12090" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="1095" yWindow="630" windowWidth="21870" windowHeight="14370" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -195,7 +191,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +265,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A160B-95FF-40E7-AB12-7BB2CDE5C966}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,6 +594,7 @@
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
@@ -682,7 +682,7 @@
       <c r="D3">
         <v>500</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="4">
@@ -717,7 +717,7 @@
       <c r="D4" s="2">
         <v>2500</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
       <c r="F4" s="4">
@@ -755,7 +755,7 @@
       <c r="D5">
         <v>5000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="4">
@@ -793,7 +793,7 @@
       <c r="D6">
         <v>7700</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="4">
@@ -831,7 +831,7 @@
       <c r="D7">
         <v>8800</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="4">
@@ -869,7 +869,7 @@
       <c r="D8">
         <v>500</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>6</v>
       </c>
       <c r="F8" s="4">
@@ -907,7 +907,7 @@
       <c r="D9" s="2">
         <v>2500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>6</v>
       </c>
       <c r="F9" s="4">
@@ -945,7 +945,7 @@
       <c r="D10">
         <v>5000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>6</v>
       </c>
       <c r="F10" s="4">
@@ -983,7 +983,7 @@
       <c r="D11">
         <v>7700</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>6</v>
       </c>
       <c r="F11" s="4">
@@ -1021,7 +1021,7 @@
       <c r="D12">
         <v>8800</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>6</v>
       </c>
       <c r="F12" s="4">
@@ -1059,7 +1059,7 @@
       <c r="D13">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>7</v>
       </c>
       <c r="F13" s="4">
@@ -1097,7 +1097,7 @@
       <c r="D14" s="2">
         <v>2500</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>7</v>
       </c>
       <c r="F14" s="4">
@@ -1135,7 +1135,7 @@
       <c r="D15">
         <v>5000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>7</v>
       </c>
       <c r="F15" s="4">
@@ -1173,11 +1173,11 @@
       <c r="D16">
         <v>7700</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>7</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f>F6</f>
         <v>506.25</v>
       </c>
       <c r="G16" s="4">
@@ -1211,7 +1211,7 @@
       <c r="D17">
         <v>8800</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>7</v>
       </c>
       <c r="F17" s="4">
@@ -1249,7 +1249,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F18">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0760E-38D1-4016-975A-FB2318AE87E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FBE65-8DD2-417B-89FB-FBA0ED0C46F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="630" windowWidth="21870" windowHeight="14370" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -101,97 +105,98 @@
     <t>design</t>
   </si>
   <si>
+    <t>엘프 드루이드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 바드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 정령사 양성소</t>
+  </si>
+  <si>
+    <t>엘프 수호자 양성소</t>
+  </si>
+  <si>
+    <t>인간 궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 전사 양성소</t>
+  </si>
+  <si>
+    <t>인간 방패병 양성소</t>
+  </si>
+  <si>
+    <t>인간 거너 양성소</t>
+  </si>
+  <si>
+    <t>인간 수녀 양성소</t>
+  </si>
+  <si>
+    <t>언데드 전사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 주술사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 리퍼 양성소</t>
+  </si>
+  <si>
+    <t>언데드 네크로멘서 양성소</t>
+  </si>
+  <si>
+    <t>언데드 소울나이트 양성소</t>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkCooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#8#9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>엘프궁수 양성소</t>
-  </si>
-  <si>
-    <t>엘프 드루이드 양성소</t>
-  </si>
-  <si>
-    <t>엘프 바드 양성소</t>
-  </si>
-  <si>
-    <t>엘프 정령사 양성소</t>
-  </si>
-  <si>
-    <t>엘프 수호자 양성소</t>
-  </si>
-  <si>
-    <t>인간 궁수 양성소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 전사 양성소</t>
-  </si>
-  <si>
-    <t>인간 방패병 양성소</t>
-  </si>
-  <si>
-    <t>인간 거너 양성소</t>
-  </si>
-  <si>
-    <t>인간 수녀 양성소</t>
-  </si>
-  <si>
-    <t>언데드 전사 양성소</t>
-  </si>
-  <si>
-    <t>언데드 주술사 양성소</t>
-  </si>
-  <si>
-    <t>언데드 리퍼 양성소</t>
-  </si>
-  <si>
-    <t>언데드 네크로멘서 양성소</t>
-  </si>
-  <si>
-    <t>언데드 소울나이트 양성소</t>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int32&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkCooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#8#9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +591,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,28 +615,28 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -648,25 +653,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -677,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>500</v>
@@ -712,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>2500</v>
@@ -750,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>5000</v>
@@ -788,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>7700</v>
@@ -826,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>8800</v>
@@ -864,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -902,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>2500</v>
@@ -940,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>5000</v>
@@ -978,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>7700</v>
@@ -1016,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>8800</v>
@@ -1054,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1092,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>2500</v>
@@ -1130,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1168,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>7700</v>
@@ -1206,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>8800</v>
@@ -1241,16 +1246,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F18">
         <f>120+170</f>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6FBE65-8DD2-417B-89FB-FBA0ED0C46F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE438D-9595-4D67-BFDA-3FB3FB20A3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,15 +184,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1#8#9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>엘프궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#8#9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +599,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -656,22 +664,22 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -682,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>500</v>
       </c>
-      <c r="E3" s="5">
-        <v>5</v>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F3" s="4">
         <v>150</v>
@@ -706,7 +714,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -722,8 +730,8 @@
       <c r="D4" s="2">
         <v>2500</v>
       </c>
-      <c r="E4" s="5">
-        <v>5</v>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="4">
         <f>F3*1.5</f>
@@ -744,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -760,8 +768,8 @@
       <c r="D5">
         <v>5000</v>
       </c>
-      <c r="E5" s="5">
-        <v>5</v>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="4">
         <f>F4*1.5</f>
@@ -782,7 +790,7 @@
         <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -798,8 +806,8 @@
       <c r="D6">
         <v>7700</v>
       </c>
-      <c r="E6" s="5">
-        <v>5</v>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F7" si="2">F5*1.5</f>
@@ -820,7 +828,7 @@
         <v>0.8</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -836,8 +844,8 @@
       <c r="D7">
         <v>8800</v>
       </c>
-      <c r="E7" s="5">
-        <v>5</v>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
@@ -858,7 +866,7 @@
         <v>0.7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -874,8 +882,8 @@
       <c r="D8">
         <v>500</v>
       </c>
-      <c r="E8" s="5">
-        <v>6</v>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F12" si="3">F3</f>
@@ -896,7 +904,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -912,8 +920,8 @@
       <c r="D9" s="2">
         <v>2500</v>
       </c>
-      <c r="E9" s="5">
-        <v>6</v>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="3"/>
@@ -934,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -950,8 +958,8 @@
       <c r="D10">
         <v>5000</v>
       </c>
-      <c r="E10" s="5">
-        <v>6</v>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="3"/>
@@ -972,7 +980,7 @@
         <v>0.9</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,8 +996,8 @@
       <c r="D11">
         <v>7700</v>
       </c>
-      <c r="E11" s="5">
-        <v>6</v>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
@@ -1010,7 +1018,7 @@
         <v>0.8</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1026,8 +1034,8 @@
       <c r="D12">
         <v>8800</v>
       </c>
-      <c r="E12" s="5">
-        <v>6</v>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
@@ -1048,7 +1056,7 @@
         <v>0.7</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1064,8 +1072,8 @@
       <c r="D13">
         <v>500</v>
       </c>
-      <c r="E13" s="5">
-        <v>7</v>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ref="F13:F17" si="6">F3</f>
@@ -1086,7 +1094,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1102,8 +1110,8 @@
       <c r="D14" s="2">
         <v>2500</v>
       </c>
-      <c r="E14" s="5">
-        <v>7</v>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="6"/>
@@ -1124,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1140,8 +1148,8 @@
       <c r="D15">
         <v>5000</v>
       </c>
-      <c r="E15" s="5">
-        <v>7</v>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="6"/>
@@ -1162,7 +1170,7 @@
         <v>0.9</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1178,8 +1186,8 @@
       <c r="D16">
         <v>7700</v>
       </c>
-      <c r="E16" s="5">
-        <v>7</v>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F16" s="4">
         <f>F6</f>
@@ -1200,7 +1208,7 @@
         <v>0.8</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1216,8 +1224,8 @@
       <c r="D17">
         <v>8800</v>
       </c>
-      <c r="E17" s="5">
-        <v>7</v>
+      <c r="E17" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="6"/>
@@ -1238,7 +1246,7 @@
         <v>0.7</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1255,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <f>120+170</f>
@@ -1274,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE438D-9595-4D67-BFDA-3FB3FB20A3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5A4B7-5B87-4700-A3A2-7850373B40D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>1#2#3#8#9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,693 +607,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7A160B-95FF-40E7-AB12-7BB2CDE5C966}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>500</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>150</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>100</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>150</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>2500</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4">
-        <f>F3*1.5</f>
+      <c r="G4" s="4">
+        <f>G3*1.5</f>
         <v>225</v>
       </c>
-      <c r="G4" s="4">
-        <f>G3*1.4</f>
+      <c r="H4" s="4">
+        <f>H3*1.4</f>
         <v>140</v>
       </c>
-      <c r="H4" s="4">
-        <f>H3*2</f>
+      <c r="I4" s="4">
+        <f>I3*2</f>
         <v>300</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.9</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5000</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="4">
-        <f>F4*1.5</f>
+      <c r="G5" s="4">
+        <f>G4*1.5</f>
         <v>337.5</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G7" si="0">G4*1.4</f>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H7" si="0">H4*1.4</f>
         <v>196</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H7" si="1">H4*2</f>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I7" si="1">I4*2</f>
         <v>600</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.9</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>7700</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="2">F5*1.5</f>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G7" si="2">G5*1.5</f>
         <v>506.25</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.8</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.8</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8800</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>759.375</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>1.3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.7</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8:F12" si="3">F3</f>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:G12" si="3">G3</f>
         <v>150</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:G12" si="4">G3</f>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H12" si="4">H3</f>
         <v>100</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" ref="H8:H12" si="5">H3</f>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:I12" si="5">I3</f>
         <v>150</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>2500</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5000</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <f t="shared" si="3"/>
         <v>337.5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.9</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7700</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <f t="shared" si="3"/>
         <v>506.25</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <f t="shared" si="4"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.8</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.8</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8800</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <f t="shared" si="3"/>
         <v>759.375</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <f t="shared" si="4"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1.3</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.7</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>500</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" ref="F13:F17" si="6">F3</f>
+      <c r="G13" s="4">
+        <f t="shared" ref="G13:G17" si="6">G3</f>
         <v>150</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" ref="G13:G17" si="7">G3</f>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H17" si="7">H3</f>
         <v>100</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" ref="H13:H17" si="8">H3</f>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:I17" si="8">I3</f>
         <v>150</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>2500</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>0.9</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5000</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="6"/>
         <v>337.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.9</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7700</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4">
-        <f>F6</f>
+      <c r="G16" s="4">
+        <f>G6</f>
         <v>506.25</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <f t="shared" si="7"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <f t="shared" si="8"/>
         <v>1200</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>0.8</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.8</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8800</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="6"/>
         <v>759.375</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <f t="shared" si="7"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <f t="shared" si="8"/>
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1.3</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.7</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f>120+170</f>
         <v>290</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>216000000</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE5A4B7-5B87-4700-A3A2-7850373B40D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBFA83C-30F3-484E-8444-1B58D5CD4DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharacterInfo!$A$2:$L$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,121 +105,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>엘프 드루이드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 바드 양성소</t>
+  </si>
+  <si>
+    <t>엘프 정령사 양성소</t>
+  </si>
+  <si>
+    <t>엘프 수호자 양성소</t>
+  </si>
+  <si>
+    <t>인간 궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 전사 양성소</t>
+  </si>
+  <si>
+    <t>인간 방패병 양성소</t>
+  </si>
+  <si>
+    <t>인간 거너 양성소</t>
+  </si>
+  <si>
+    <t>인간 수녀 양성소</t>
+  </si>
+  <si>
+    <t>언데드 전사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 주술사 양성소</t>
+  </si>
+  <si>
+    <t>언데드 리퍼 양성소</t>
+  </si>
+  <si>
+    <t>언데드 네크로멘서 양성소</t>
+  </si>
+  <si>
+    <t>언데드 소울나이트 양성소</t>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkCooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프궁수 양성소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2#3#8#9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>design</t>
-  </si>
-  <si>
-    <t>엘프 드루이드 양성소</t>
-  </si>
-  <si>
-    <t>엘프 바드 양성소</t>
-  </si>
-  <si>
-    <t>엘프 정령사 양성소</t>
-  </si>
-  <si>
-    <t>엘프 수호자 양성소</t>
-  </si>
-  <si>
-    <t>인간 궁수 양성소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 전사 양성소</t>
-  </si>
-  <si>
-    <t>인간 방패병 양성소</t>
-  </si>
-  <si>
-    <t>인간 거너 양성소</t>
-  </si>
-  <si>
-    <t>인간 수녀 양성소</t>
-  </si>
-  <si>
-    <t>언데드 전사 양성소</t>
-  </si>
-  <si>
-    <t>언데드 주술사 양성소</t>
-  </si>
-  <si>
-    <t>언데드 리퍼 양성소</t>
-  </si>
-  <si>
-    <t>언데드 네크로멘서 양성소</t>
-  </si>
-  <si>
-    <t>언데드 소울나이트 양성소</t>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int32&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkCooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프궁수 양성소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#2#3#5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#2#3#6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#2#3#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#2#3#8#9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>race</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +228,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +245,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -249,20 +270,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -275,23 +317,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +652,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="F18:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,733 +669,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2">
+        <v>500</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>150</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>100</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>150</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
         <v>2500</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="5">
         <f>G3*1.5</f>
         <v>225</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <f>H3*1.4</f>
         <v>140</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f>I3*2</f>
         <v>300</v>
       </c>
       <c r="J4" s="3">
         <v>0.9</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
         <v>5000</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5">
         <f>G4*1.5</f>
         <v>337.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="0">H4*1.4</f>
         <v>196</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I7" si="1">I4*2</f>
         <v>600</v>
       </c>
       <c r="J5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.9</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
         <v>7700</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G7" si="2">G5*1.5</f>
         <v>506.25</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="J6" s="3">
         <v>0.8</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.8</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
         <v>8800</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="2"/>
         <v>759.375</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="J7" s="3">
         <v>1.3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0.7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
         <v>500</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G12" si="3">G3</f>
         <v>150</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <f t="shared" ref="H8:H12" si="4">H3</f>
         <v>100</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" ref="I8:I12" si="5">I3</f>
         <v>150</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6">
         <v>2500</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>0.9</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
         <v>5000</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>337.5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>0.9</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>7700</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
         <v>506.25</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <f t="shared" si="4"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J11" s="3">
         <v>0.8</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>0.8</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
         <v>8800</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>759.375</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <f t="shared" si="4"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
       <c r="J12" s="3">
         <v>1.3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>0.7</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
         <v>500</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" ref="G13:G17" si="6">G3</f>
         <v>150</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <f t="shared" ref="H13:H17" si="7">H3</f>
         <v>100</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f t="shared" ref="I13:I17" si="8">I3</f>
         <v>150</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6">
         <v>2500</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="J14" s="3">
         <v>0.9</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
         <v>5000</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="6"/>
         <v>337.5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <f t="shared" si="7"/>
         <v>196</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>0.9</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
         <v>7700</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="5">
         <f>G6</f>
         <v>506.25</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <f t="shared" si="7"/>
         <v>274.39999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="J16" s="3">
         <v>0.8</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>0.8</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2">
         <v>8800</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="6"/>
         <v>759.375</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <f t="shared" si="7"/>
         <v>384.15999999999997</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f t="shared" si="8"/>
         <v>2400</v>
       </c>
       <c r="J17" s="3">
         <v>1.3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>0.7</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2">
         <f>120+170</f>
         <v>290</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>216000000</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:L18" xr:uid="{14DACFC5-28EB-42E5-BDE6-0C0BCD56BDE8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBFA83C-30F3-484E-8444-1B58D5CD4DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DB2E3-5D83-4C13-996E-B1C02FB38867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="9720" yWindow="780" windowWidth="18315" windowHeight="14370" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -652,10 +648,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="F18:G21"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,7 +775,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -820,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -861,7 +857,7 @@
         <v>0.9</v>
       </c>
       <c r="L5" s="2">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -902,7 +898,7 @@
         <v>0.8</v>
       </c>
       <c r="L6" s="2">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -943,7 +939,7 @@
         <v>0.7</v>
       </c>
       <c r="L7" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -984,7 +980,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L8" s="2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1025,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1066,7 +1062,7 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1107,7 +1103,7 @@
         <v>0.8</v>
       </c>
       <c r="L11" s="2">
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1148,7 +1144,7 @@
         <v>0.7</v>
       </c>
       <c r="L12" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1189,7 +1185,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L13" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1230,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1271,7 +1267,7 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1312,7 +1308,7 @@
         <v>0.8</v>
       </c>
       <c r="L16" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1353,7 +1349,7 @@
         <v>0.7</v>
       </c>
       <c r="L17" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1392,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DB2E3-5D83-4C13-996E-B1C02FB38867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BFDD9-3B5E-4D63-A939-8A9002482239}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="780" windowWidth="18315" windowHeight="14370" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BFDD9-3B5E-4D63-A939-8A9002482239}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CAA83-FBD7-4546-BBE3-02F9F70FDF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="#전투시트" sheetId="2" r:id="rId2"/>
+    <sheet name="#전투시트DB" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharacterInfo!$A$2:$L$18</definedName>
   </definedNames>
@@ -26,6 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +222,77 @@
   </si>
   <si>
     <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴먼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스-&gt;유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 공격 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스를 잡기 위한 유닛 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언데드 전사</t>
+  </si>
+  <si>
+    <t>보스가 한번에 유닛을 잡는 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 수 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1게임 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언데드 주술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간 거너</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +345,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +375,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -303,13 +441,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,9 +729,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -329,6 +736,96 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -337,6 +834,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -346,6 +848,372 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AbilityInfo"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>index</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>name</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>descript</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>abilityType</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>cast</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>duration</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>range</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>cooltime</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>amount</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>int32</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>int32</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>float</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>List&lt;int32&gt;</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>공격</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>이동</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>정지</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>헤매기</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>2</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>300</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>보호</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>유닛이 3타를 칠 때마다 1초 무적</v>
+          </cell>
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>축복</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>유닛이 3타를 칠 때마다 5초간 공격력과 방어력이 5%상승</v>
+          </cell>
+          <cell r="D8">
+            <v>2</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>5</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>5#5#3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>강타</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>유닛이 3타를 칠 때마다 고정데미지 20%의 추가 피해</v>
+          </cell>
+          <cell r="D9">
+            <v>2</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>20#3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>보스공격</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>2</v>
+          </cell>
+          <cell r="E10">
+            <v>0.5</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>10</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>보스스킬</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>1</v>
+          </cell>
+          <cell r="E11">
+            <v>0.8</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>15</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>20#3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +1519,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,10 +1615,10 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2">
@@ -759,20 +1627,22 @@
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>150</v>
       </c>
-      <c r="H3" s="5">
-        <v>100</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="4">
+        <v>80</v>
+      </c>
+      <c r="I3" s="4">
         <v>150</v>
       </c>
-      <c r="J3" s="3">
-        <v>1</v>
+      <c r="J3" s="35">
+        <f>1*1.5</f>
+        <v>1.5</v>
       </c>
       <c r="K3" s="2">
-        <v>1.1000000000000001</v>
+        <f>1.5*1.1</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="L3" s="2">
         <v>10</v>
@@ -785,35 +1655,36 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2500</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5">
-        <f>G3*1.5</f>
+      <c r="G4" s="4">
         <v>225</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>H3*1.4</f>
-        <v>140</v>
-      </c>
-      <c r="I4" s="5">
+        <v>112</v>
+      </c>
+      <c r="I4" s="4">
         <f>I3*2</f>
         <v>300</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.9</v>
+      <c r="J4" s="35">
+        <f>1.5*0.9</f>
+        <v>1.35</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <f>1.5*1</f>
+        <v>1.5</v>
       </c>
       <c r="L4" s="2">
         <v>5</v>
@@ -826,10 +1697,10 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2">
@@ -838,23 +1709,24 @@
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="5">
-        <f>G4*1.5</f>
-        <v>337.5</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="4">
+        <v>338</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" ref="H5:H7" si="0">H4*1.4</f>
-        <v>196</v>
-      </c>
-      <c r="I5" s="5">
+        <v>156.79999999999998</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" ref="I5:I7" si="1">I4*2</f>
         <v>600</v>
       </c>
-      <c r="J5" s="3">
-        <v>1.1000000000000001</v>
+      <c r="J5" s="35">
+        <f>1.5*1.1</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>0.9</v>
+        <f>1.5*0.9</f>
+        <v>1.35</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
@@ -867,10 +1739,10 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2">
@@ -879,23 +1751,24 @@
       <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G7" si="2">G5*1.5</f>
-        <v>506.25</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="4">
+        <v>506</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>274.39999999999998</v>
-      </c>
-      <c r="I6" s="5">
+        <v>219.51999999999995</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.8</v>
+      <c r="J6" s="35">
+        <f>1.5*0.8</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K6" s="2">
-        <v>0.8</v>
+        <f>1.5*0.8</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L6" s="2">
         <v>4.5</v>
@@ -908,10 +1781,10 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2">
@@ -920,23 +1793,24 @@
       <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>759.375</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="4">
+        <v>759</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>384.15999999999997</v>
-      </c>
-      <c r="I7" s="5">
+        <v>307.32799999999992</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="J7" s="3">
-        <v>1.3</v>
+      <c r="J7" s="35">
+        <f>1.3*1.5</f>
+        <v>1.9500000000000002</v>
       </c>
       <c r="K7" s="2">
-        <v>0.7</v>
+        <f>1.5*7</f>
+        <v>10.5</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -949,10 +1823,10 @@
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2">
@@ -961,23 +1835,21 @@
       <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:G12" si="3">G3</f>
+      <c r="G8" s="4">
         <v>150</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:H12" si="4">H3</f>
-        <v>100</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" ref="I8:I12" si="5">I3</f>
+      <c r="H8" s="4">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:I12" si="2">I3</f>
         <v>150</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
+      <c r="J8" s="35">
+        <v>1.5</v>
       </c>
       <c r="K8" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="L8" s="2">
         <v>10</v>
@@ -990,35 +1862,33 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2500</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
+      <c r="G9" s="4">
         <v>225</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
+      <c r="H9" s="4">
         <v>140</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="5"/>
+      <c r="I9" s="4">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.9</v>
+      <c r="J9" s="35">
+        <v>1.35</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
@@ -1031,10 +1901,10 @@
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2">
@@ -1043,23 +1913,21 @@
       <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>337.5</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="4"/>
+      <c r="G10" s="4">
+        <v>338</v>
+      </c>
+      <c r="H10" s="4">
         <v>196</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="5"/>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="J10" s="3">
-        <v>1.1000000000000001</v>
+      <c r="J10" s="35">
+        <v>1.65</v>
       </c>
       <c r="K10" s="2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
@@ -1072,10 +1940,10 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2">
@@ -1084,23 +1952,21 @@
       <c r="F11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>506.25</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
-        <v>274.39999999999998</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="5"/>
+      <c r="G11" s="4">
+        <v>520</v>
+      </c>
+      <c r="H11" s="4">
+        <v>220</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.8</v>
+      <c r="J11" s="35">
+        <v>1.2000000000000002</v>
       </c>
       <c r="K11" s="2">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L11" s="2">
         <v>12</v>
@@ -1113,10 +1979,10 @@
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2">
@@ -1125,23 +1991,21 @@
       <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>759.375</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
+      <c r="G12" s="4">
+        <v>759</v>
+      </c>
+      <c r="H12" s="4">
         <v>384.15999999999997</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="5"/>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
-        <v>1.3</v>
+      <c r="J12" s="35">
+        <v>1.9500000000000002</v>
       </c>
       <c r="K12" s="2">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="L12" s="2">
         <v>5</v>
@@ -1154,10 +2018,10 @@
       <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2">
@@ -1166,23 +2030,21 @@
       <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" ref="G13:G17" si="6">G3</f>
+      <c r="G13" s="4">
         <v>150</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" ref="H13:H17" si="7">H3</f>
+      <c r="H13" s="4">
         <v>100</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" ref="I13:I17" si="8">I3</f>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13:I17" si="3">I3</f>
         <v>150</v>
       </c>
-      <c r="J13" s="3">
-        <v>1</v>
+      <c r="J13" s="35">
+        <v>1.5</v>
       </c>
       <c r="K13" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>
@@ -1195,35 +2057,33 @@
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>2500</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="6"/>
-        <v>225</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="8"/>
+      <c r="G14" s="4">
+        <v>235</v>
+      </c>
+      <c r="H14" s="4">
+        <v>130</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.9</v>
+      <c r="J14" s="35">
+        <v>1.35</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L14" s="2">
         <v>5</v>
@@ -1236,10 +2096,10 @@
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="2">
@@ -1248,23 +2108,21 @@
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="6"/>
-        <v>337.5</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="7"/>
+      <c r="G15" s="4">
+        <v>338</v>
+      </c>
+      <c r="H15" s="4">
         <v>196</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="8"/>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="J15" s="3">
-        <v>1.1000000000000001</v>
+      <c r="J15" s="35">
+        <v>1.6500000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="L15" s="2">
         <v>3</v>
@@ -1277,10 +2135,10 @@
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2">
@@ -1289,23 +2147,21 @@
       <c r="F16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="5">
-        <f>G6</f>
-        <v>506.25</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="7"/>
+      <c r="G16" s="4">
+        <v>506</v>
+      </c>
+      <c r="H16" s="4">
         <v>274.39999999999998</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="8"/>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="J16" s="3">
-        <v>0.8</v>
+      <c r="J16" s="35">
+        <v>1.2000000000000002</v>
       </c>
       <c r="K16" s="2">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L16" s="2">
         <v>3</v>
@@ -1318,10 +2174,10 @@
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2">
@@ -1330,23 +2186,21 @@
       <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="6"/>
-        <v>759.375</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="7"/>
+      <c r="G17" s="4">
+        <v>759</v>
+      </c>
+      <c r="H17" s="4">
         <v>384.15999999999997</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="8"/>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
-        <v>1.3</v>
+      <c r="J17" s="35">
+        <v>1.9500000000000002</v>
       </c>
       <c r="K17" s="2">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="L17" s="2">
         <v>3</v>
@@ -1359,7 +2213,7 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2">
@@ -1379,13 +2233,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>216000000</v>
+        <f>216000000/300</f>
+        <v>720000</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>3</v>
+        <f>1.5*3</f>
+        <v>4.5</v>
       </c>
       <c r="L18" s="2">
         <v>12</v>
@@ -1397,4 +2253,1070 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819BE4EB-16CC-48E7-88C3-DFA1F3E5BC98}">
+  <dimension ref="A1:R29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="23" t="str">
+        <f>[1]AbilityInfo!A1</f>
+        <v>index</v>
+      </c>
+      <c r="J1" s="23" t="str">
+        <f>[1]AbilityInfo!B1</f>
+        <v>name</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>[1]AbilityInfo!C1</f>
+        <v>descript</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>[1]AbilityInfo!D1</f>
+        <v>abilityType</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f>[1]AbilityInfo!E1</f>
+        <v>cast</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f>[1]AbilityInfo!F1</f>
+        <v>duration</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f>[1]AbilityInfo!G1</f>
+        <v>range</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f>[1]AbilityInfo!H1</f>
+        <v>distance</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f>[1]AbilityInfo!I1</f>
+        <v>cooltime</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f>[1]AbilityInfo!J1</f>
+        <v>amount</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="23" t="str">
+        <f>[1]AbilityInfo!A2</f>
+        <v>int32</v>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f>[1]AbilityInfo!B2</f>
+        <v>string</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>[1]AbilityInfo!C2</f>
+        <v>string</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>[1]AbilityInfo!D2</f>
+        <v>int32</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>[1]AbilityInfo!E2</f>
+        <v>float</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>[1]AbilityInfo!F2</f>
+        <v>float</v>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f>[1]AbilityInfo!G2</f>
+        <v>float</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f>[1]AbilityInfo!H2</f>
+        <v>float</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f>[1]AbilityInfo!I2</f>
+        <v>float</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>[1]AbilityInfo!J2</f>
+        <v>List&lt;int32&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
+        <f>ROUNDUP(CharacterInfo!$I3/(CharacterInfo!$G$18-CharacterInfo!$H3),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <f>ROUNDUP(CharacterInfo!$I4/(CharacterInfo!$G$18-CharacterInfo!$H4),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <f>ROUNDUP(CharacterInfo!$I5/(CharacterInfo!$G$18-CharacterInfo!$H5),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <f>ROUNDUP(CharacterInfo!$I6/(CharacterInfo!$G$18-CharacterInfo!$H6),0)</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="8">
+        <f>ROUNDUP(CharacterInfo!$I7/(CharacterInfo!$G$18-CharacterInfo!$H7),0)</f>
+        <v>-139</v>
+      </c>
+      <c r="I3" s="24">
+        <f>[1]AbilityInfo!A3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="24" t="str">
+        <f>[1]AbilityInfo!B3</f>
+        <v>공격</v>
+      </c>
+      <c r="K3" s="24">
+        <f>[1]AbilityInfo!C3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <f>[1]AbilityInfo!D3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <f>[1]AbilityInfo!E3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <f>[1]AbilityInfo!F3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="25">
+        <f>[1]AbilityInfo!G3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <f>[1]AbilityInfo!H3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="25">
+        <f>[1]AbilityInfo!I3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="24">
+        <f>[1]AbilityInfo!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
+        <f>((20+5+5+5)/4)/C3</f>
+        <v>8.75</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:G4" si="0">((20+5+5+5)/4)/D3</f>
+        <v>4.375</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.2949640287769781E-2</v>
+      </c>
+      <c r="I4" s="24">
+        <f>[1]AbilityInfo!A4</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="24" t="str">
+        <f>[1]AbilityInfo!B4</f>
+        <v>이동</v>
+      </c>
+      <c r="K4" s="24">
+        <f>[1]AbilityInfo!C4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <f>[1]AbilityInfo!D4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <f>[1]AbilityInfo!E4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <f>[1]AbilityInfo!F4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <f>[1]AbilityInfo!G4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <f>[1]AbilityInfo!H4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>[1]AbilityInfo!I4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
+        <f>[1]AbilityInfo!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27">
+        <v>100</v>
+      </c>
+      <c r="D5" s="27">
+        <v>100</v>
+      </c>
+      <c r="E5" s="27">
+        <v>100</v>
+      </c>
+      <c r="F5" s="27">
+        <v>100</v>
+      </c>
+      <c r="G5" s="27">
+        <v>100</v>
+      </c>
+      <c r="I5" s="24">
+        <f>[1]AbilityInfo!A5</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f>[1]AbilityInfo!B5</f>
+        <v>정지</v>
+      </c>
+      <c r="K5" s="24">
+        <f>[1]AbilityInfo!C5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <f>[1]AbilityInfo!D5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <f>[1]AbilityInfo!E5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <f>[1]AbilityInfo!F5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <f>[1]AbilityInfo!G5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <f>[1]AbilityInfo!H5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>[1]AbilityInfo!I5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
+        <f>[1]AbilityInfo!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <f>[1]AbilityInfo!A6</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>[1]AbilityInfo!B6</f>
+        <v>헤매기</v>
+      </c>
+      <c r="K6" s="24">
+        <f>[1]AbilityInfo!C6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f>[1]AbilityInfo!D6</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <f>[1]AbilityInfo!E6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <f>[1]AbilityInfo!F6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <f>[1]AbilityInfo!G6</f>
+        <v>300</v>
+      </c>
+      <c r="P6" s="25">
+        <f>[1]AbilityInfo!H6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <f>[1]AbilityInfo!I6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="24">
+        <f>[1]AbilityInfo!J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16">
+        <f>$C5*CharacterInfo!$K3</f>
+        <v>165</v>
+      </c>
+      <c r="D7" s="16">
+        <f>D$5*CharacterInfo!$K4</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="16">
+        <f>E$5*CharacterInfo!$K5</f>
+        <v>135</v>
+      </c>
+      <c r="F7" s="16">
+        <f>F$5*CharacterInfo!$K6</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="G7" s="16">
+        <f>G$5*CharacterInfo!$K7</f>
+        <v>1050</v>
+      </c>
+      <c r="I7" s="24">
+        <f>[1]AbilityInfo!A7</f>
+        <v>5</v>
+      </c>
+      <c r="J7" s="24" t="str">
+        <f>[1]AbilityInfo!B7</f>
+        <v>보호</v>
+      </c>
+      <c r="K7" s="24" t="str">
+        <f>[1]AbilityInfo!C7</f>
+        <v>유닛이 3타를 칠 때마다 1초 무적</v>
+      </c>
+      <c r="L7" s="24">
+        <f>[1]AbilityInfo!D7</f>
+        <v>2</v>
+      </c>
+      <c r="M7" s="25">
+        <f>[1]AbilityInfo!E7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <f>[1]AbilityInfo!F7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <f>[1]AbilityInfo!G7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <f>[1]AbilityInfo!H7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <f>[1]AbilityInfo!I7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="24">
+        <f>[1]AbilityInfo!J7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="24">
+        <f>[1]AbilityInfo!A8</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f>[1]AbilityInfo!B8</f>
+        <v>축복</v>
+      </c>
+      <c r="K9" s="24" t="str">
+        <f>[1]AbilityInfo!C8</f>
+        <v>유닛이 3타를 칠 때마다 5초간 공격력과 방어력이 5%상승</v>
+      </c>
+      <c r="L9" s="24">
+        <f>[1]AbilityInfo!D8</f>
+        <v>2</v>
+      </c>
+      <c r="M9" s="25">
+        <f>[1]AbilityInfo!E8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <f>[1]AbilityInfo!F8</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="25">
+        <f>[1]AbilityInfo!G8</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <f>[1]AbilityInfo!H8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <f>[1]AbilityInfo!I8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="24" t="str">
+        <f>[1]AbilityInfo!J8</f>
+        <v>5#5#3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="24">
+        <f>[1]AbilityInfo!A9</f>
+        <v>7</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f>[1]AbilityInfo!B9</f>
+        <v>강타</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f>[1]AbilityInfo!C9</f>
+        <v>유닛이 3타를 칠 때마다 고정데미지 20%의 추가 피해</v>
+      </c>
+      <c r="L10" s="24">
+        <f>[1]AbilityInfo!D9</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="25">
+        <f>[1]AbilityInfo!E9</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <f>[1]AbilityInfo!F9</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <f>[1]AbilityInfo!G9</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <f>[1]AbilityInfo!H9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <f>[1]AbilityInfo!I9</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="24" t="str">
+        <f>[1]AbilityInfo!J9</f>
+        <v>20#3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="I11" s="24">
+        <f>[1]AbilityInfo!A10</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f>[1]AbilityInfo!B10</f>
+        <v>보스공격</v>
+      </c>
+      <c r="K11" s="24">
+        <f>[1]AbilityInfo!C10</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <f>[1]AbilityInfo!D10</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="25">
+        <f>[1]AbilityInfo!E10</f>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="25">
+        <f>[1]AbilityInfo!F10</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <f>[1]AbilityInfo!G10</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="25">
+        <f>[1]AbilityInfo!H10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <f>[1]AbilityInfo!I10</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <f>[1]AbilityInfo!J10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="24">
+        <f>[1]AbilityInfo!A11</f>
+        <v>9</v>
+      </c>
+      <c r="J12" s="24" t="str">
+        <f>[1]AbilityInfo!B11</f>
+        <v>보스스킬</v>
+      </c>
+      <c r="K12" s="24">
+        <f>[1]AbilityInfo!C11</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <f>[1]AbilityInfo!D11</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="25">
+        <f>[1]AbilityInfo!E11</f>
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="25">
+        <f>[1]AbilityInfo!F11</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <f>[1]AbilityInfo!G11</f>
+        <v>15</v>
+      </c>
+      <c r="P12" s="25">
+        <f>[1]AbilityInfo!H11</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <f>[1]AbilityInfo!I11</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="24" t="str">
+        <f>[1]AbilityInfo!J11</f>
+        <v>20#3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8">
+        <f>ROUNDUP(CharacterInfo!$I8/(CharacterInfo!$G$18-CharacterInfo!$H8),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <f>ROUNDUP(CharacterInfo!$I9/(CharacterInfo!$G$18-CharacterInfo!$H9),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <f>ROUNDUP(CharacterInfo!$I10/(CharacterInfo!$G$18-CharacterInfo!$H10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="8">
+        <f>ROUNDUP(CharacterInfo!$I11/(CharacterInfo!$G$18-CharacterInfo!$H11),0)</f>
+        <v>18</v>
+      </c>
+      <c r="G13" s="8">
+        <f>ROUNDUP(CharacterInfo!$I12/(CharacterInfo!$G$18-CharacterInfo!$H12),0)</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8">
+        <f>((20+5+5+5)/4)/C13</f>
+        <v>8.75</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14" si="1">((20+5+5+5)/4)/D13</f>
+        <v>4.375</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14" si="2">((20+5+5+5)/4)/E13</f>
+        <v>1.25</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14" si="3">((20+5+5+5)/4)/F13</f>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14" si="4">((20+5+5+5)/4)/G13</f>
+        <v>-0.33653846153846156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27">
+        <v>100</v>
+      </c>
+      <c r="D15" s="27">
+        <v>100</v>
+      </c>
+      <c r="E15" s="27">
+        <v>100</v>
+      </c>
+      <c r="F15" s="27">
+        <v>100</v>
+      </c>
+      <c r="G15" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16">
+        <f>$C15*CharacterInfo!$K8</f>
+        <v>165</v>
+      </c>
+      <c r="D17" s="16">
+        <f>D$5*CharacterInfo!$K9</f>
+        <v>150</v>
+      </c>
+      <c r="E17" s="16">
+        <f>E$5*CharacterInfo!$K10</f>
+        <v>135</v>
+      </c>
+      <c r="F17" s="16">
+        <f>F$5*CharacterInfo!$K11</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <f>G$5*CharacterInfo!$K12</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="K18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19">
+        <f>ROUNDUP(C5/C4,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <f>K19</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8">
+        <f>ROUNDUP(CharacterInfo!$I13/(CharacterInfo!$G$18-CharacterInfo!$H13),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <f>ROUNDUP(CharacterInfo!$I14/(CharacterInfo!$G$18-CharacterInfo!$H22),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <f>ROUNDUP(CharacterInfo!$I15/(CharacterInfo!$G$18-CharacterInfo!$H15),0)</f>
+        <v>7</v>
+      </c>
+      <c r="F23" s="8">
+        <f>ROUNDUP(CharacterInfo!$I16/(CharacterInfo!$G$18-CharacterInfo!$H16),0)</f>
+        <v>77</v>
+      </c>
+      <c r="G23" s="8">
+        <f>ROUNDUP(CharacterInfo!$I17/(CharacterInfo!$G$18-CharacterInfo!$H17),0)</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8">
+        <f>((20+5+5+5)/4)/C23</f>
+        <v>8.75</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24" si="5">((20+5+5+5)/4)/D23</f>
+        <v>4.375</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24" si="6">((20+5+5+5)/4)/E23</f>
+        <v>1.25</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24" si="7">((20+5+5+5)/4)/F23</f>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" ref="G24" si="8">((20+5+5+5)/4)/G23</f>
+        <v>-0.33653846153846156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27">
+        <v>100</v>
+      </c>
+      <c r="D25" s="27">
+        <v>100</v>
+      </c>
+      <c r="E25" s="27">
+        <v>100</v>
+      </c>
+      <c r="F25" s="27">
+        <v>100</v>
+      </c>
+      <c r="G25" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16">
+        <f>$C25*CharacterInfo!$K13</f>
+        <v>165</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D$5*CharacterInfo!$K14</f>
+        <v>150</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E$5*CharacterInfo!$K15</f>
+        <v>135</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F$5*CharacterInfo!$K16</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G$5*CharacterInfo!$K17</f>
+        <v>1050</v>
+      </c>
+      <c r="J27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E744C959-CF19-436E-BC82-88F7B6C6ED4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CAA83-FBD7-4546-BBE3-02F9F70FDF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B2083-85DE-498A-BF0B-BFC3E44234C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -301,8 +297,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -732,90 +728,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,9 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,7 +1515,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1632,7 @@
       <c r="I3" s="4">
         <v>150</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="32">
         <f>1*1.5</f>
         <v>1.5</v>
       </c>
@@ -1678,7 +1674,7 @@
         <f>I3*2</f>
         <v>300</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="32">
         <f>1.5*0.9</f>
         <v>1.35</v>
       </c>
@@ -1720,7 +1716,7 @@
         <f t="shared" ref="I5:I7" si="1">I4*2</f>
         <v>600</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="32">
         <f>1.5*1.1</f>
         <v>1.6500000000000001</v>
       </c>
@@ -1762,7 +1758,7 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="32">
         <f>1.5*0.8</f>
         <v>1.2000000000000002</v>
       </c>
@@ -1804,7 +1800,7 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="32">
         <f>1.3*1.5</f>
         <v>1.9500000000000002</v>
       </c>
@@ -1845,7 +1841,7 @@
         <f t="shared" ref="I8:I12" si="2">I3</f>
         <v>150</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="32">
         <v>1.5</v>
       </c>
       <c r="K8" s="2">
@@ -1884,7 +1880,7 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="32">
         <v>1.35</v>
       </c>
       <c r="K9" s="2">
@@ -1923,7 +1919,7 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="32">
         <v>1.65</v>
       </c>
       <c r="K10" s="2">
@@ -1962,7 +1958,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="32">
         <v>1.2000000000000002</v>
       </c>
       <c r="K11" s="2">
@@ -2001,7 +1997,7 @@
         <f t="shared" si="2"/>
         <v>2400</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="32">
         <v>1.9500000000000002</v>
       </c>
       <c r="K12" s="2">
@@ -2040,7 +2036,7 @@
         <f t="shared" ref="I13:I17" si="3">I3</f>
         <v>150</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="32">
         <v>1.5</v>
       </c>
       <c r="K13" s="2">
@@ -2079,7 +2075,7 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="32">
         <v>1.35</v>
       </c>
       <c r="K14" s="2">
@@ -2118,7 +2114,7 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="32">
         <v>1.6500000000000001</v>
       </c>
       <c r="K15" s="2">
@@ -2157,11 +2153,11 @@
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="32">
         <v>1.2000000000000002</v>
       </c>
       <c r="K16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="L16" s="2">
         <v>3</v>
@@ -2196,7 +2192,7 @@
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="32">
         <v>1.9500000000000002</v>
       </c>
       <c r="K17" s="2">
@@ -2240,8 +2236,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>1.5*3</f>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L18" s="2">
         <v>12</v>
@@ -2282,15 +2277,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
       <c r="I1" s="23" t="str">
         <f>[1]AbilityInfo!A1</f>
         <v>index</v>
@@ -2830,15 +2825,15 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="I11" s="24">
         <f>[1]AbilityInfo!A10</f>
         <v>8</v>
@@ -3107,15 +3102,15 @@
     </row>
     <row r="20" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
       <c r="J21" t="s">
         <v>67</v>
       </c>
@@ -3264,7 +3259,7 @@
       </c>
       <c r="F27" s="16">
         <f>F$5*CharacterInfo!$K16</f>
-        <v>120.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="G27" s="16">
         <f>G$5*CharacterInfo!$K17</f>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381B2083-85DE-498A-BF0B-BFC3E44234C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC7EC1-389D-4E45-9DE8-36F946A8270E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2229,8 +2229,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>216000000/300</f>
-        <v>720000</v>
+        <v>27000000</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC7EC1-389D-4E45-9DE8-36F946A8270E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C741D-4B66-4B2C-BC59-59A67D6E4C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="225" windowWidth="25440" windowHeight="15390" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterInfo" sheetId="1" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1805,8 +1805,7 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="K7" s="2">
-        <f>1.5*7</f>
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
@@ -2001,7 +2000,7 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="K12" s="2">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
         <v>5</v>
@@ -2196,7 +2195,7 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="K17" s="2">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
         <v>3</v>
@@ -2229,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>27000000</v>
+        <v>999999999</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2666,7 +2665,7 @@
       </c>
       <c r="G7" s="16">
         <f>G$5*CharacterInfo!$K7</f>
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="I7" s="24">
         <f>[1]AbilityInfo!A7</f>
@@ -3052,7 +3051,7 @@
       </c>
       <c r="G17" s="16">
         <f>G$5*CharacterInfo!$K12</f>
-        <v>1050</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3262,7 +3261,7 @@
       </c>
       <c r="G27" s="16">
         <f>G$5*CharacterInfo!$K17</f>
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="J27">
         <v>1.5</v>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C741D-4B66-4B2C-BC59-59A67D6E4C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4124E05-142F-427B-9FEF-AABF046B58FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2237,7 +2237,7 @@
         <v>1.5</v>
       </c>
       <c r="L18" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/CharacterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4124E05-142F-427B-9FEF-AABF046B58FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2688848B-437F-4734-A3CF-3C5303DA0245}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D4BE653-2200-43C3-B24F-8F5503243BB4}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>999999999</v>
+        <v>50000000</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
